--- a/ddbj_data_submission/dfast_sample_list.xlsx
+++ b/ddbj_data_submission/dfast_sample_list.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanizawa/projects/covid19/mass_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanizawa/projects/covid19/nig_vrl/ddbj_data_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C967F2-F12D-3445-A768-2EDF1349A3C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516D6D55-16F5-CA4F-9C7D-59B31FE285D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25180" yWindow="5000" windowWidth="37220" windowHeight="13620" xr2:uid="{79CDB5C3-67F3-A944-87C1-063D9C27A2DD}"/>
+    <workbookView xWindow="76800" yWindow="880" windowWidth="37220" windowHeight="13620" xr2:uid="{79CDB5C3-67F3-A944-87C1-063D9C27A2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="deprecated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
   <si>
     <t>../dfast_vrl/examples/LC570964-6.draft.contigs.fa</t>
   </si>
@@ -227,6 +227,51 @@
   </si>
   <si>
     <t>2021-04-26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>examples/LC570964-6.draft.contigs.fa</t>
+  </si>
+  <si>
+    <t>examples/MW850590.fasta</t>
+  </si>
+  <si>
+    <t>examples/SRR10903401.meta_vrl.contig.fa</t>
+  </si>
+  <si>
+    <t>150x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Empty if not registered</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use ; to separate multuple values</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g. Tanizawa,Y.; Fujisawa,T.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Format Tanizawa,Y. (Don't put blank)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>authors' name for reference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unpublished' if no reference available or published</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Absolute path or relative path from the directory where excel2dfast.py is invoked</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -234,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,13 +318,25 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -299,7 +356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +372,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB75F49-1A8B-604B-AF9D-8AA31894A01A}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -747,7 +816,7 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>57</v>
@@ -777,7 +846,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>58</v>
@@ -801,12 +870,12 @@
         <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>59</v>
@@ -830,7 +899,76 @@
         <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="10" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" s="8"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="O8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="O9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="AC10" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
